--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD2FB6D-B666-405F-9205-8EF401C87BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEFEBEF-C157-4A9D-A019-0D3F02F6E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1415" yWindow="1415" windowWidth="14400" windowHeight="7455" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="1110" windowWidth="14745" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -934,15 +934,15 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.54296875" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -950,7 +950,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45356</v>
+        <v>45364</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -959,7 +959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
@@ -982,7 +982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="K5" s="5" t="s">
         <v>47</v>
@@ -1005,7 +1005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K6" s="5" t="s">
         <v>49</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" s="5" t="s">
         <v>61</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K19" s="5" t="s">
         <v>75</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" s="5" t="s">
         <v>77</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22" s="5" t="s">
         <v>81</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K23" s="5" t="s">
         <v>83</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K24" s="5" t="s">
         <v>85</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K25" s="5" t="s">
         <v>87</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K26" s="5" t="s">
         <v>89</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K27" s="5" t="s">
         <v>91</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K29" s="5" t="s">
         <v>95</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K30" s="5" t="s">
         <v>97</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K31" s="5" t="s">
         <v>99</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K32" s="5" t="s">
         <v>101</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K33" s="5" t="s">
         <v>103</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K34" s="5" t="s">
         <v>105</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K35" s="5" t="s">
         <v>107</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K36" s="5" t="s">
         <v>109</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K37" s="5" t="s">
         <v>111</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K38" s="5" t="s">
         <v>113</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K39" s="5" t="s">
         <v>115</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K40" s="5" t="s">
         <v>117</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K41" s="5" t="s">
         <v>119</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K42" s="5" t="s">
         <v>121</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K43" s="5" t="s">
         <v>123</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K44" s="5" t="s">
         <v>125</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K45" s="5" t="s">
         <v>127</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K46" s="5" t="s">
         <v>129</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K47" s="5" t="s">
         <v>131</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K48" s="5" t="s">
         <v>133</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K49" s="5" t="s">
         <v>135</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.75">
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K50" s="5" t="s">
         <v>137</v>
       </c>
@@ -1415,20 +1415,20 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="1">
         <v>2020</v>
@@ -1524,7 +1524,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>71</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>81</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>91</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>99</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>101</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>105</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>107</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>111</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>113</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>119</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>121</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>129</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>135</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>137</v>
       </c>
@@ -6591,16 +6591,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC2A82-7998-436D-923D-E027ED704B93}">
   <dimension ref="A2:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.86328125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -6789,18 +6789,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -6889,15 +6889,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.40625" customWidth="1"/>
-    <col min="2" max="31" width="7.58984375" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="31" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7117,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -7242,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -7367,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7492,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -7617,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8117,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8492,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -8617,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8992,132 +8994,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -9617,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -9742,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -9867,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -10011,13 +10013,13 @@
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.40625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="31" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -10112,7 +10114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10207,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -10302,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -10492,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -10587,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -10777,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -10967,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11062,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -11252,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -11347,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -11442,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -11822,7 +11824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -12012,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -12107,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -12202,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -12297,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEFEBEF-C157-4A9D-A019-0D3F02F6E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3223005D-7E4E-4D94-8324-C836033C84B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1110" windowWidth="14745" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="9815" windowHeight="7290" firstSheet="2" activeTab="2" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RPS v CES" sheetId="4" r:id="rId2"/>
-    <sheet name="default values" sheetId="5" r:id="rId3"/>
-    <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId4"/>
-    <sheet name="RQSD-RQSD" sheetId="3" r:id="rId5"/>
+    <sheet name="RPS custom new" sheetId="7" r:id="rId2"/>
+    <sheet name="RPS v CES" sheetId="4" r:id="rId3"/>
+    <sheet name="default values" sheetId="5" r:id="rId4"/>
+    <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId5"/>
+    <sheet name="RQSD-RQSD" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="145">
   <si>
     <t>Source:</t>
   </si>
@@ -466,12 +467,18 @@
   <si>
     <t>hard copy paste from bau rps data by subregion 3/4/2024</t>
   </si>
+  <si>
+    <t>Electricity Source</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +528,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -559,7 +573,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -577,13 +591,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -598,6 +613,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -931,18 +966,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -950,7 +983,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45364</v>
+        <v>45379</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -958,8 +991,11 @@
       <c r="L1" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,16 +1009,22 @@
       <c r="L2" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,8 +1037,11 @@
       <c r="L4" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B5" s="2"/>
       <c r="K5" s="5" t="s">
         <v>47</v>
@@ -1004,24 +1049,33 @@
       <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1085,11 @@
       <c r="L8" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1042,8 +1099,11 @@
       <c r="L9" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1053,8 +1113,11 @@
       <c r="L10" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1064,16 +1127,22 @@
       <c r="L11" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1152,11 @@
       <c r="L13" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1094,8 +1166,11 @@
       <c r="L14" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1105,8 +1180,11 @@
       <c r="L15" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1116,8 +1194,11 @@
       <c r="L16" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1127,8 +1208,11 @@
       <c r="L17" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1138,269 +1222,368 @@
       <c r="L18" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K19" s="5" t="s">
         <v>75</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K23" s="5" t="s">
         <v>83</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K24" s="5" t="s">
         <v>85</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K25" s="5" t="s">
         <v>87</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K27" s="5" t="s">
         <v>91</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K28" s="5" t="s">
         <v>93</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K29" s="5" t="s">
         <v>95</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K30" s="5" t="s">
         <v>97</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K31" s="5" t="s">
         <v>99</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K32" s="5" t="s">
         <v>101</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K33" s="5" t="s">
         <v>103</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K34" s="5" t="s">
         <v>105</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K35" s="5" t="s">
         <v>107</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K36" s="5" t="s">
         <v>109</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K37" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K38" s="5" t="s">
         <v>113</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K39" s="5" t="s">
         <v>115</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K40" s="5" t="s">
         <v>117</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K41" s="5" t="s">
         <v>119</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K42" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K43" s="5" t="s">
         <v>123</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K44" s="5" t="s">
         <v>125</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K45" s="5" t="s">
         <v>127</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K46" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K47" s="5" t="s">
         <v>131</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K48" s="5" t="s">
         <v>133</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K49" s="5" t="s">
         <v>135</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K50" s="5" t="s">
         <v>137</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="M50" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1408,27 +1591,4181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE78E49-9E37-4D14-A191-DD6C416836D5}">
+  <dimension ref="A1:AY26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="28.2265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="B1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(B2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(C2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="D1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(D2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(E2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="F1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(F2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(G2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(H2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(I2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(J2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(K2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="L1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(L2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="M1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(M2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="N1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(N2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="O1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(O2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="P1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(P2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(Q2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="R1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(R2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="S1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(S2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="T1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(T2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="U1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(U2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="V1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(V2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(W2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="X1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(X2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(Y2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="Z1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(Z2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AA2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AB1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AB2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AC1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AC2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AD1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AD2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AE1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AE2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AF1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AF2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AG1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AG2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AH1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AH2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AI1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AI2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AJ1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AJ2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AK1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AK2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AL1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AL2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AM1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AM2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AN1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AN2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AO1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AO2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AP1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AP2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AQ1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AQ2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AR1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AR2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AS2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AT1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AT2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AU1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AU2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AV1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AV2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AW2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AX1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AX2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AY2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AY15" si="0">C3</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.75">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AY2">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AY26">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0859-BFC7-40E6-97BE-4124316516E0}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.75">
       <c r="C3" s="9"/>
       <c r="D3" s="1">
         <v>2020</v>
@@ -1524,7 +5861,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1625,7 +5962,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1726,7 +6063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1827,7 +6164,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1928,7 +6265,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +6366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +6467,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2198,40 +6535,40 @@
         <v>140</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
@@ -2332,7 +6669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
@@ -2433,7 +6770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2534,7 +6871,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
@@ -2635,7 +6972,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
@@ -2736,7 +7073,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
@@ -2837,7 +7174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
@@ -2938,7 +7275,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
@@ -3039,7 +7376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
@@ -3140,7 +7477,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B20" s="5" t="s">
         <v>71</v>
       </c>
@@ -3241,7 +7578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -3342,7 +7679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
@@ -3440,10 +7777,10 @@
         <v>140</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
@@ -3544,7 +7881,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
@@ -3645,7 +7982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B25" s="5" t="s">
         <v>81</v>
       </c>
@@ -3746,7 +8083,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
@@ -3847,7 +8184,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
@@ -3948,7 +8285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
@@ -4049,7 +8386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
@@ -4150,7 +8487,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B30" s="5" t="s">
         <v>91</v>
       </c>
@@ -4251,7 +8588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
@@ -4349,10 +8686,10 @@
         <v>140</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
@@ -4453,7 +8790,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
@@ -4554,7 +8891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B34" s="5" t="s">
         <v>99</v>
       </c>
@@ -4655,7 +8992,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B35" s="5" t="s">
         <v>101</v>
       </c>
@@ -4756,7 +9093,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -4857,7 +9194,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B37" s="5" t="s">
         <v>105</v>
       </c>
@@ -4958,7 +9295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B38" s="5" t="s">
         <v>107</v>
       </c>
@@ -5059,7 +9396,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
@@ -5160,7 +9497,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B40" s="5" t="s">
         <v>111</v>
       </c>
@@ -5261,7 +9598,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B41" s="5" t="s">
         <v>113</v>
       </c>
@@ -5362,7 +9699,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
@@ -5463,7 +9800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -5564,7 +9901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B44" s="5" t="s">
         <v>119</v>
       </c>
@@ -5665,7 +10002,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B45" s="5" t="s">
         <v>121</v>
       </c>
@@ -5766,7 +10103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
@@ -5867,7 +10204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
@@ -5968,7 +10305,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
@@ -6069,7 +10406,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B49" s="5" t="s">
         <v>129</v>
       </c>
@@ -6170,7 +10507,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
@@ -6271,7 +10608,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
@@ -6372,7 +10709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B52" s="5" t="s">
         <v>135</v>
       </c>
@@ -6473,7 +10810,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B53" s="5" t="s">
         <v>137</v>
       </c>
@@ -6587,20 +10924,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC2A82-7998-436D-923D-E027ED704B93}">
   <dimension ref="A2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -6611,144 +10948,156 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A3,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A4,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A5,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A6,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A7,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A8,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A9,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A10,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A11,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A12,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A13,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A14,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <f>B3</f>
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A15,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C15">
@@ -6756,150 +11105,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A16,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A17,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A18,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A19,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A20,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A21,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A22,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A23,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24">
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A24,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
         <v>0</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A25,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <f>INDEX('RPS custom new'!$B$3:$AY$26,MATCH('default values'!$A26,'RPS custom new'!$A$3:$A$26,0),MATCH(About!$B$1,'RPS custom new'!$B$2:$AY$2,0))</f>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:C26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="31" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.40625" customWidth="1"/>
+    <col min="2" max="31" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -6994,7 +11362,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7119,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -7244,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -7369,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7494,132 +11862,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -7744,7 +12112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7869,7 +12237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7994,132 +12362,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8244,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8494,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -8619,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -8744,7 +13112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8869,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8994,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -9119,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -9244,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -9369,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -9494,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -9619,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -9744,254 +14112,254 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10004,22 +14372,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.40625" customWidth="1"/>
     <col min="2" max="31" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -10114,7 +14482,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10209,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -10304,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -10399,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -10494,7 +14862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -10589,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10684,7 +15052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -10779,7 +15147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -10874,7 +15242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -10969,7 +15337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11064,7 +15432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -11159,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -11254,7 +15622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -11349,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -11444,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -11539,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -11634,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -11729,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -11824,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -11919,7 +16287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -12014,7 +16382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -12109,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -12204,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -12299,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3223005D-7E4E-4D94-8324-C836033C84B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{384AC4A6-B015-4544-8E76-D8FD91BBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="9815" windowHeight="7290" firstSheet="2" activeTab="2" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="10" yWindow="730" windowWidth="19190" windowHeight="10070" firstSheet="2" activeTab="5" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +579,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -592,6 +598,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -970,12 +977,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.54296875" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -983,7 +990,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45379</v>
+        <v>45407</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -995,7 +1002,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="K5" s="5" t="s">
         <v>47</v>
@@ -1053,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K6" s="5" t="s">
         <v>49</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1117,7 +1124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" s="5" t="s">
         <v>61</v>
       </c>
@@ -1142,7 +1149,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1177,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K19" s="5" t="s">
         <v>75</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K20" s="5" t="s">
         <v>77</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K22" s="5" t="s">
         <v>81</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K23" s="5" t="s">
         <v>83</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K24" s="5" t="s">
         <v>85</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K25" s="5" t="s">
         <v>87</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K26" s="5" t="s">
         <v>89</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K27" s="5" t="s">
         <v>91</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K29" s="5" t="s">
         <v>95</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K30" s="5" t="s">
         <v>97</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K31" s="5" t="s">
         <v>99</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K32" s="5" t="s">
         <v>101</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K33" s="5" t="s">
         <v>103</v>
       </c>
@@ -1391,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K34" s="5" t="s">
         <v>105</v>
       </c>
@@ -1402,7 +1409,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K35" s="5" t="s">
         <v>107</v>
       </c>
@@ -1413,7 +1420,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K36" s="5" t="s">
         <v>109</v>
       </c>
@@ -1424,7 +1431,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K37" s="5" t="s">
         <v>111</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="38" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K38" s="5" t="s">
         <v>113</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="39" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K39" s="5" t="s">
         <v>115</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="40" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K40" s="5" t="s">
         <v>117</v>
       </c>
@@ -1468,7 +1475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="41" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K41" s="5" t="s">
         <v>119</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="42" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K42" s="5" t="s">
         <v>121</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="43" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K43" s="5" t="s">
         <v>123</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="44" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K44" s="5" t="s">
         <v>125</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="45" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K45" s="5" t="s">
         <v>127</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="46" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K46" s="5" t="s">
         <v>129</v>
       </c>
@@ -1534,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="47" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K47" s="5" t="s">
         <v>131</v>
       </c>
@@ -1545,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="48" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K48" s="5" t="s">
         <v>133</v>
       </c>
@@ -1556,7 +1563,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K49" s="5" t="s">
         <v>135</v>
       </c>
@@ -1567,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K50" s="5" t="s">
         <v>137</v>
       </c>
@@ -1599,12 +1606,12 @@
       <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.2265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
         <f>INDEX(About!$M:$M,MATCH(B2,About!$K:$K,0))</f>
         <v/>
@@ -1806,7 +1813,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -1961,7 +1968,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2426,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2891,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3356,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3666,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4026,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4181,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -4336,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4491,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4801,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4956,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5266,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -5748,24 +5755,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0859-BFC7-40E6-97BE-4124316516E0}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="1">
         <v>2020</v>
@@ -5861,7 +5868,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
@@ -5962,7 +5969,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -6265,7 +6272,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -6366,7 +6373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -6467,7 +6474,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
@@ -6568,7 +6575,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
@@ -6669,7 +6676,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
@@ -6770,7 +6777,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
@@ -6871,7 +6878,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
@@ -6972,7 +6979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
@@ -7073,7 +7080,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
@@ -7174,7 +7181,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
@@ -7275,7 +7282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
@@ -7376,7 +7383,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
@@ -7477,7 +7484,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>71</v>
       </c>
@@ -7578,7 +7585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7679,7 +7686,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
@@ -7780,7 +7787,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
@@ -7982,7 +7989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>81</v>
       </c>
@@ -8083,7 +8090,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
@@ -8184,7 +8191,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
@@ -8285,7 +8292,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
@@ -8386,7 +8393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
@@ -8487,7 +8494,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>91</v>
       </c>
@@ -8588,7 +8595,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
@@ -8689,7 +8696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
@@ -8790,7 +8797,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
@@ -8891,7 +8898,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>99</v>
       </c>
@@ -8992,7 +8999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>101</v>
       </c>
@@ -9093,7 +9100,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -9194,7 +9201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>105</v>
       </c>
@@ -9295,7 +9302,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>107</v>
       </c>
@@ -9396,7 +9403,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
@@ -9497,7 +9504,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>111</v>
       </c>
@@ -9598,7 +9605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>113</v>
       </c>
@@ -9699,7 +9706,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
@@ -9800,7 +9807,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -9901,7 +9908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>119</v>
       </c>
@@ -10002,7 +10009,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>121</v>
       </c>
@@ -10103,7 +10110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
@@ -10204,7 +10211,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
@@ -10305,7 +10312,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
@@ -10406,7 +10413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>129</v>
       </c>
@@ -10507,7 +10514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
@@ -10608,7 +10615,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
@@ -10709,7 +10716,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>135</v>
       </c>
@@ -10810,7 +10817,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>137</v>
       </c>
@@ -10932,12 +10939,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.86328125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -10948,7 +10955,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -10960,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -10972,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10984,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -10996,7 +11003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11008,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -11020,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11032,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -11044,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -11056,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -11068,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -11080,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -11092,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -11105,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -11117,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -11129,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -11141,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -11153,7 +11160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -11165,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -11177,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -11189,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -11201,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -11213,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -11225,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -11261,13 +11268,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.40625" customWidth="1"/>
-    <col min="2" max="31" width="7.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="31" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -11362,7 +11369,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -11487,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -11612,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -11737,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -11862,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -11987,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12112,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -12237,7 +12244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -12362,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -12487,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -12612,7 +12619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12737,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -12862,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -12987,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -13112,7 +13119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -13237,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -13362,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -13487,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -13612,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -13737,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -13862,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -13987,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -14112,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -14237,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -14379,15 +14386,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.40625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="31" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -14482,17 +14491,20 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="14">
+        <f>'RQSD-BRQSD'!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <f>'RQSD-BRQSD'!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <f>'RQSD-BRQSD'!D2</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -14577,17 +14589,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="14">
+        <f>'RQSD-BRQSD'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <f>'RQSD-BRQSD'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <f>'RQSD-BRQSD'!D3</f>
         <v>0</v>
       </c>
       <c r="E3">
@@ -14672,17 +14687,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="14">
+        <f>'RQSD-BRQSD'!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f>'RQSD-BRQSD'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <f>'RQSD-BRQSD'!D4</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -14767,18 +14785,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="B5" s="14">
+        <f>'RQSD-BRQSD'!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <f>'RQSD-BRQSD'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f>'RQSD-BRQSD'!D5</f>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -14862,18 +14883,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="B6" s="14">
+        <f>'RQSD-BRQSD'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <f>'RQSD-BRQSD'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <f>'RQSD-BRQSD'!D6</f>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -14957,17 +14981,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="14">
+        <f>'RQSD-BRQSD'!B7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <f>'RQSD-BRQSD'!C7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <f>'RQSD-BRQSD'!D7</f>
         <v>1</v>
       </c>
       <c r="E7">
@@ -15052,17 +15079,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="14">
+        <f>'RQSD-BRQSD'!B8</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <f>'RQSD-BRQSD'!C8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <f>'RQSD-BRQSD'!D8</f>
         <v>1</v>
       </c>
       <c r="E8">
@@ -15147,17 +15177,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="14">
+        <f>'RQSD-BRQSD'!B9</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <f>'RQSD-BRQSD'!C9</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <f>'RQSD-BRQSD'!D9</f>
         <v>1</v>
       </c>
       <c r="E9">
@@ -15242,17 +15275,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="14">
+        <f>'RQSD-BRQSD'!B10</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <f>'RQSD-BRQSD'!C10</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <f>'RQSD-BRQSD'!D10</f>
         <v>1</v>
       </c>
       <c r="E10">
@@ -15337,17 +15373,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="14">
+        <f>'RQSD-BRQSD'!B11</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <f>'RQSD-BRQSD'!C11</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <f>'RQSD-BRQSD'!D11</f>
         <v>1</v>
       </c>
       <c r="E11">
@@ -15432,17 +15471,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="14">
+        <f>'RQSD-BRQSD'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <f>'RQSD-BRQSD'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <f>'RQSD-BRQSD'!D12</f>
         <v>0</v>
       </c>
       <c r="E12">
@@ -15527,17 +15569,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="14">
+        <f>'RQSD-BRQSD'!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <f>'RQSD-BRQSD'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <f>'RQSD-BRQSD'!D13</f>
         <v>0</v>
       </c>
       <c r="E13">
@@ -15622,17 +15667,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="14">
+        <f>'RQSD-BRQSD'!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <f>'RQSD-BRQSD'!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f>'RQSD-BRQSD'!D14</f>
         <v>0</v>
       </c>
       <c r="E14">
@@ -15717,17 +15765,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="14">
+        <f>'RQSD-BRQSD'!B15</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <f>'RQSD-BRQSD'!C15</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <f>'RQSD-BRQSD'!D15</f>
         <v>1</v>
       </c>
       <c r="E15">
@@ -15812,17 +15863,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="14">
+        <f>'RQSD-BRQSD'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <f>'RQSD-BRQSD'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <f>'RQSD-BRQSD'!D16</f>
         <v>0</v>
       </c>
       <c r="E16">
@@ -15907,17 +15961,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="14">
+        <f>'RQSD-BRQSD'!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <f>'RQSD-BRQSD'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <f>'RQSD-BRQSD'!D17</f>
         <v>0</v>
       </c>
       <c r="E17">
@@ -16002,18 +16059,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="B18" s="14">
+        <f>'RQSD-BRQSD'!B18</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
+        <f>'RQSD-BRQSD'!C18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <f>'RQSD-BRQSD'!D18</f>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -16097,18 +16157,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="B19" s="14">
+        <f>'RQSD-BRQSD'!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <f>'RQSD-BRQSD'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <f>'RQSD-BRQSD'!D19</f>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -16192,18 +16255,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="B20" s="14">
+        <f>'RQSD-BRQSD'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <f>'RQSD-BRQSD'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <f>'RQSD-BRQSD'!D20</f>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -16287,18 +16353,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="B21" s="14">
+        <f>'RQSD-BRQSD'!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <f>'RQSD-BRQSD'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <f>'RQSD-BRQSD'!D21</f>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -16382,18 +16451,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="B22" s="14">
+        <f>'RQSD-BRQSD'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <f>'RQSD-BRQSD'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <f>'RQSD-BRQSD'!D22</f>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -16477,18 +16549,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="B23" s="14">
+        <f>'RQSD-BRQSD'!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <f>'RQSD-BRQSD'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <f>'RQSD-BRQSD'!D23</f>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -16572,18 +16647,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="B24" s="14">
+        <f>'RQSD-BRQSD'!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <f>'RQSD-BRQSD'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <f>'RQSD-BRQSD'!D24</f>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -16667,18 +16745,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="B25" s="14">
+        <f>'RQSD-BRQSD'!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <f>'RQSD-BRQSD'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <f>'RQSD-BRQSD'!D25</f>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384AC4A6-B015-4544-8E76-D8FD91BBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{315DAC3F-7D8D-4E51-BA26-F147807C01F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="730" windowWidth="19190" windowHeight="10070" firstSheet="2" activeTab="5" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="5" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -975,14 +975,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -990,7 +992,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45407</v>
+        <v>45460</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -1002,7 +1004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B5" s="2"/>
       <c r="K5" s="5" t="s">
         <v>47</v>
@@ -1060,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K6" s="5" t="s">
         <v>49</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1138,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K12" s="5" t="s">
         <v>61</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K19" s="5" t="s">
         <v>75</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K20" s="5" t="s">
         <v>77</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K22" s="5" t="s">
         <v>81</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K23" s="5" t="s">
         <v>83</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K24" s="5" t="s">
         <v>85</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K25" s="5" t="s">
         <v>87</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K26" s="5" t="s">
         <v>89</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K27" s="5" t="s">
         <v>91</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K29" s="5" t="s">
         <v>95</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K30" s="5" t="s">
         <v>97</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K31" s="5" t="s">
         <v>99</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K32" s="5" t="s">
         <v>101</v>
       </c>
@@ -1387,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K33" s="5" t="s">
         <v>103</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K34" s="5" t="s">
         <v>105</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K35" s="5" t="s">
         <v>107</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K36" s="5" t="s">
         <v>109</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K37" s="5" t="s">
         <v>111</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K38" s="5" t="s">
         <v>113</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K39" s="5" t="s">
         <v>115</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K40" s="5" t="s">
         <v>117</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K41" s="5" t="s">
         <v>119</v>
       </c>
@@ -1486,7 +1488,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K42" s="5" t="s">
         <v>121</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K43" s="5" t="s">
         <v>123</v>
       </c>
@@ -1508,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K44" s="5" t="s">
         <v>125</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K45" s="5" t="s">
         <v>127</v>
       </c>
@@ -1530,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K46" s="5" t="s">
         <v>129</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K47" s="5" t="s">
         <v>131</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K48" s="5" t="s">
         <v>133</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K49" s="5" t="s">
         <v>135</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:13" x14ac:dyDescent="0.75">
       <c r="K50" s="5" t="s">
         <v>137</v>
       </c>
@@ -1601,17 +1603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE78E49-9E37-4D14-A191-DD6C416836D5}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.75">
       <c r="B1" t="str">
         <f>INDEX(About!$M:$M,MATCH(B2,About!$K:$K,0))</f>
         <v/>
@@ -1813,7 +1815,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2743,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2898,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4653,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -5755,24 +5757,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0859-BFC7-40E6-97BE-4124316516E0}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.75">
       <c r="C3" s="9"/>
       <c r="D3" s="1">
         <v>2020</v>
@@ -5868,7 +5870,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
@@ -5876,100 +5878,100 @@
         <v>40</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
@@ -5977,100 +5979,100 @@
         <v>42</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH5" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -6179,100 +6181,100 @@
         <v>46</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG7" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -6373,7 +6375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
@@ -6684,100 +6686,100 @@
         <v>56</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
@@ -6785,100 +6787,100 @@
         <v>58</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
@@ -6979,7 +6981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
@@ -6987,100 +6989,100 @@
         <v>62</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.75">
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
@@ -7189,100 +7191,100 @@
         <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH17" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
@@ -7391,100 +7393,100 @@
         <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH19" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B20" s="5" t="s">
         <v>71</v>
       </c>
@@ -7492,100 +7494,100 @@
         <v>72</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG20" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH20" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7593,100 +7595,100 @@
         <v>74</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B25" s="5" t="s">
         <v>81</v>
       </c>
@@ -8090,7 +8092,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
@@ -8199,100 +8201,100 @@
         <v>86</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH27" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
@@ -8393,7 +8395,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
@@ -8404,97 +8406,97 @@
         <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG29" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH29" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B30" s="5" t="s">
         <v>91</v>
       </c>
@@ -8502,64 +8504,64 @@
         <v>92</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W30" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X30" s="11" t="s">
         <v>141</v>
@@ -8595,7 +8597,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
@@ -8797,7 +8799,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B34" s="5" t="s">
         <v>99</v>
       </c>
@@ -8999,7 +9001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B35" s="5" t="s">
         <v>101</v>
       </c>
@@ -9100,7 +9102,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B37" s="5" t="s">
         <v>105</v>
       </c>
@@ -9209,100 +9211,100 @@
         <v>106</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH37" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B38" s="5" t="s">
         <v>107</v>
       </c>
@@ -9331,79 +9333,79 @@
         <v>140</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH38" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
@@ -9411,100 +9413,100 @@
         <v>110</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH39" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B40" s="5" t="s">
         <v>111</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B41" s="5" t="s">
         <v>113</v>
       </c>
@@ -9706,7 +9708,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -9815,100 +9817,100 @@
         <v>118</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG43" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH43" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B44" s="5" t="s">
         <v>119</v>
       </c>
@@ -9916,100 +9918,100 @@
         <v>120</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG44" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH44" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B45" s="5" t="s">
         <v>121</v>
       </c>
@@ -10017,100 +10019,100 @@
         <v>122</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG45" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
@@ -10211,7 +10213,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
@@ -10219,100 +10221,100 @@
         <v>126</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
@@ -10413,7 +10415,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B49" s="5" t="s">
         <v>129</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>141</v>
@@ -10514,7 +10516,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
@@ -10623,100 +10625,100 @@
         <v>134</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B52" s="5" t="s">
         <v>135</v>
       </c>
@@ -10817,7 +10819,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.75">
       <c r="B53" s="5" t="s">
         <v>137</v>
       </c>
@@ -10825,97 +10827,97 @@
         <v>138</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -10936,15 +10938,15 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -10955,7 +10957,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -10967,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -10979,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -11003,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11015,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11039,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -11051,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -11075,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -11087,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -11112,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -11124,7 +11126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -11160,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -11172,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -11208,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -11220,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -11232,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -11266,15 +11268,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="31" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.40625" customWidth="1"/>
+    <col min="2" max="31" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -11369,7 +11373,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -11494,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -11619,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -11744,257 +11748,257 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12119,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -12244,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -12369,7 +12373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -12494,7 +12498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -12619,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12744,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -12869,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -12994,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -13119,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -13244,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -13369,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -13494,879 +13498,879 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14387,16 +14391,16 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.40625" customWidth="1"/>
     <col min="2" max="31" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -14491,7 +14495,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -14589,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -14687,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -14785,21 +14789,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="14">
         <f>'RQSD-BRQSD'!B5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="14">
         <f>'RQSD-BRQSD'!C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
         <f>'RQSD-BRQSD'!D5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -14883,21 +14887,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="14">
         <f>'RQSD-BRQSD'!B6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="14">
         <f>'RQSD-BRQSD'!C6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="14">
         <f>'RQSD-BRQSD'!D6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -14981,7 +14985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -15079,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -15275,7 +15279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15373,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15471,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -15569,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -15667,7 +15671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -15765,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -15863,7 +15867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -15961,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -16059,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -16157,21 +16161,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="14">
         <f>'RQSD-BRQSD'!B19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="14">
         <f>'RQSD-BRQSD'!C19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="14">
         <f>'RQSD-BRQSD'!D19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -16255,21 +16259,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="14">
         <f>'RQSD-BRQSD'!B20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="14">
         <f>'RQSD-BRQSD'!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
         <f>'RQSD-BRQSD'!D20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -16353,21 +16357,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="14">
         <f>'RQSD-BRQSD'!B21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="14">
         <f>'RQSD-BRQSD'!C21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="14">
         <f>'RQSD-BRQSD'!D21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -16451,21 +16455,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="14">
         <f>'RQSD-BRQSD'!B22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="14">
         <f>'RQSD-BRQSD'!C22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="14">
         <f>'RQSD-BRQSD'!D22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -16549,21 +16553,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="14">
         <f>'RQSD-BRQSD'!B23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="14">
         <f>'RQSD-BRQSD'!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="14">
         <f>'RQSD-BRQSD'!D23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -16647,21 +16651,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="14">
         <f>'RQSD-BRQSD'!B24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="14">
         <f>'RQSD-BRQSD'!C24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="14">
         <f>'RQSD-BRQSD'!D24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -16745,21 +16749,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="14">
         <f>'RQSD-BRQSD'!B25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="14">
         <f>'RQSD-BRQSD'!C25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
         <f>'RQSD-BRQSD'!D25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{315DAC3F-7D8D-4E51-BA26-F147807C01F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CA4F87-29C7-499F-91AE-08059D2DDE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="5" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RPS custom new" sheetId="7" r:id="rId2"/>
-    <sheet name="RPS v CES" sheetId="4" r:id="rId3"/>
-    <sheet name="default values" sheetId="5" r:id="rId4"/>
-    <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId5"/>
-    <sheet name="RQSD-RQSD" sheetId="3" r:id="rId6"/>
+    <sheet name="CES custom" sheetId="8" r:id="rId3"/>
+    <sheet name="RPS v CES" sheetId="4" r:id="rId4"/>
+    <sheet name="default values" sheetId="5" r:id="rId5"/>
+    <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId6"/>
+    <sheet name="RQSD-RQSD" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="145">
   <si>
     <t>Source:</t>
   </si>
@@ -605,7 +606,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -620,6 +621,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -979,12 +990,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.54296875" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45460</v>
+        <v>45518</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -1004,7 +1015,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1033,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
@@ -1033,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="K5" s="5" t="s">
         <v>47</v>
@@ -1062,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K6" s="5" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K7" s="5" t="s">
         <v>51</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" s="5" t="s">
         <v>61</v>
       </c>
@@ -1151,7 +1162,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1165,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1207,7 +1218,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1235,7 +1246,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K19" s="5" t="s">
         <v>75</v>
       </c>
@@ -1246,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K20" s="5" t="s">
         <v>77</v>
       </c>
@@ -1257,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K22" s="5" t="s">
         <v>81</v>
       </c>
@@ -1279,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K23" s="5" t="s">
         <v>83</v>
       </c>
@@ -1290,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K24" s="5" t="s">
         <v>85</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K25" s="5" t="s">
         <v>87</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K26" s="5" t="s">
         <v>89</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K27" s="5" t="s">
         <v>91</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K29" s="5" t="s">
         <v>95</v>
       </c>
@@ -1356,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K30" s="5" t="s">
         <v>97</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K31" s="5" t="s">
         <v>99</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K32" s="5" t="s">
         <v>101</v>
       </c>
@@ -1389,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K33" s="5" t="s">
         <v>103</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K34" s="5" t="s">
         <v>105</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K35" s="5" t="s">
         <v>107</v>
       </c>
@@ -1422,7 +1433,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K36" s="5" t="s">
         <v>109</v>
       </c>
@@ -1433,7 +1444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K37" s="5" t="s">
         <v>111</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="38" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K38" s="5" t="s">
         <v>113</v>
       </c>
@@ -1455,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="39" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K39" s="5" t="s">
         <v>115</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="40" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K40" s="5" t="s">
         <v>117</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="41" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K41" s="5" t="s">
         <v>119</v>
       </c>
@@ -1488,7 +1499,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="42" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K42" s="5" t="s">
         <v>121</v>
       </c>
@@ -1499,7 +1510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="43" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K43" s="5" t="s">
         <v>123</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="44" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K44" s="5" t="s">
         <v>125</v>
       </c>
@@ -1521,7 +1532,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="45" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K45" s="5" t="s">
         <v>127</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="46" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K46" s="5" t="s">
         <v>129</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="47" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K47" s="5" t="s">
         <v>131</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="48" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K48" s="5" t="s">
         <v>133</v>
       </c>
@@ -1565,7 +1576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K49" s="5" t="s">
         <v>135</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.75">
+    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K50" s="5" t="s">
         <v>137</v>
       </c>
@@ -1589,10 +1600,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1603,17 +1614,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE78E49-9E37-4D14-A191-DD6C416836D5}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
         <f>INDEX(About!$M:$M,MATCH(B2,About!$K:$K,0))</f>
         <v/>
@@ -1815,7 +1826,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -1970,7 +1981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2435,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2900,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3520,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3675,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3830,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4035,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -4345,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4500,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4655,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4810,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4965,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5120,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5275,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5430,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -5585,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -5742,10 +5753,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AY2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:AY26">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5754,27 +5765,4186 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860BC92D-B549-4AD4-AEA4-FAF7CF83DE3E}">
+  <dimension ref="A1:AY26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(B2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(C2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="D1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(D2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(E2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="F1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(F2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(G2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(H2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(I2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(J2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(K2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="L1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(L2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="M1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(M2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="N1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(N2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="O1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(O2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="P1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(P2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(Q2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="R1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(R2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="S1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(S2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="T1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(T2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="U1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(U2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="V1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(V2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(W2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="X1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(X2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(Y2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="Z1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(Z2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AA2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AB1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AB2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AC1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AC2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AD1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AD2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AE1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AE2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AF1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AF2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AG1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AG2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AH1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AH2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AI1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AI2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AJ1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AJ2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AK1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AK2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AL1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AL2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AM1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AM2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AN1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AN2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AO1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AO2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AP1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AP2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AQ1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AQ2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AR1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AR2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AS2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AT1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AT2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AU1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AU2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AV1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AV2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AW2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+      <c r="AX1" t="b">
+        <f>INDEX(About!$M:$M,MATCH(AX2,About!$K:$K,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>INDEX(About!$M:$M,MATCH(AY2,About!$K:$K,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AY15" si="0">C3</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AY2">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AY26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0859-BFC7-40E6-97BE-4124316516E0}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="1">
         <v>2020</v>
@@ -5870,7 +10040,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
@@ -5971,7 +10141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
@@ -6072,7 +10242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
@@ -6173,7 +10343,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -6274,7 +10444,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -6375,7 +10545,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -6476,7 +10646,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
@@ -6577,7 +10747,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
@@ -6678,7 +10848,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
@@ -6779,7 +10949,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
@@ -6880,7 +11050,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
@@ -6981,7 +11151,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
@@ -7082,7 +11252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
@@ -7183,7 +11353,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
@@ -7284,7 +11454,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>67</v>
       </c>
@@ -7385,7 +11555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
@@ -7486,7 +11656,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>71</v>
       </c>
@@ -7587,7 +11757,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7688,7 +11858,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
@@ -7789,7 +11959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
@@ -7890,7 +12060,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
@@ -7991,7 +12161,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>81</v>
       </c>
@@ -8092,7 +12262,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
@@ -8193,7 +12363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
@@ -8294,7 +12464,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
@@ -8395,7 +12565,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
@@ -8496,7 +12666,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>91</v>
       </c>
@@ -8597,7 +12767,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>93</v>
       </c>
@@ -8698,7 +12868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
@@ -8799,7 +12969,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
@@ -8900,7 +13070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>99</v>
       </c>
@@ -9001,7 +13171,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>101</v>
       </c>
@@ -9102,7 +13272,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -9203,7 +13373,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>105</v>
       </c>
@@ -9304,7 +13474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>107</v>
       </c>
@@ -9405,7 +13575,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
@@ -9506,7 +13676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>111</v>
       </c>
@@ -9607,7 +13777,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>113</v>
       </c>
@@ -9708,7 +13878,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
@@ -9809,7 +13979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -9910,7 +14080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>119</v>
       </c>
@@ -10011,7 +14181,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>121</v>
       </c>
@@ -10112,7 +14282,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
@@ -10213,7 +14383,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
@@ -10314,7 +14484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
@@ -10415,7 +14585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>129</v>
       </c>
@@ -10516,7 +14686,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
@@ -10617,7 +14787,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
@@ -10718,7 +14888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>135</v>
       </c>
@@ -10819,7 +14989,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>137</v>
       </c>
@@ -10933,20 +15103,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC2A82-7998-436D-923D-E027ED704B93}">
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.86328125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -10957,7 +15127,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -10966,10 +15136,11 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A3,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -10978,10 +15149,11 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A4,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -10990,10 +15162,11 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A5,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -11002,10 +15175,11 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A6,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11014,10 +15188,11 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A7,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -11026,10 +15201,11 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A8,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11038,10 +15214,11 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A9,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -11050,10 +15227,11 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A10,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -11062,10 +15240,11 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A11,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -11074,10 +15253,11 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A12,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -11086,10 +15266,11 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A13,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -11098,10 +15279,11 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A14,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -11110,11 +15292,11 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f>C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A15,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -11123,10 +15305,11 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A16,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -11135,10 +15318,11 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A17,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -11147,10 +15331,11 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A18,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -11159,10 +15344,11 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A19,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -11171,10 +15357,11 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A20,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -11183,10 +15370,11 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A21,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -11195,10 +15383,11 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A22,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -11207,10 +15396,11 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A23,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -11219,10 +15409,11 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A24,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -11231,10 +15422,11 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A25,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -11243,6 +15435,7 @@
         <v>0</v>
       </c>
       <c r="C26">
+        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A26,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -11261,24 +15454,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.40625" customWidth="1"/>
-    <col min="2" max="31" width="7.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="31" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -11373,7 +15566,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -11498,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -11623,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -11748,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -11873,7 +16066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -11998,7 +16191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12123,7 +16316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -12248,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -12373,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -12498,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -12623,7 +16816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12748,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -12873,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -12998,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -13123,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -13248,7 +17441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -13373,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -13498,7 +17691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -13623,7 +17816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -13748,7 +17941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -13873,7 +18066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -13998,7 +18191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -14123,7 +18316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -14248,7 +18441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -14383,24 +18576,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.40625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="31" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -14495,7 +18688,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -14593,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -14691,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -14789,7 +18982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -14887,7 +19080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -14985,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -15083,7 +19276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -15181,7 +19374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -15279,7 +19472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15377,7 +19570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15475,7 +19668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -15573,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -15671,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -15769,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -15867,7 +20060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -15965,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -16063,7 +20256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -16161,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -16259,7 +20452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -16357,7 +20550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -16455,7 +20648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -16553,7 +20746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -16651,7 +20844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -16749,7 +20942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CA4F87-29C7-499F-91AE-08059D2DDE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C3439B-2311-48F7-B4A5-3A5461B32EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="1950" yWindow="1920" windowWidth="19965" windowHeight="7170" firstSheet="1" activeTab="2" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -466,13 +466,13 @@
     <t>CES</t>
   </si>
   <si>
-    <t>hard copy paste from bau rps data by subregion 3/4/2024</t>
-  </si>
-  <si>
     <t>Electricity Source</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>hard copy paste from bau rps data by subregion 8/26/2024</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -621,6 +621,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -987,7 +997,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1013,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45518</v>
+        <v>45532</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -1012,7 +1022,7 @@
         <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1030,7 +1040,7 @@
         <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1058,7 +1068,7 @@
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1120,7 +1130,7 @@
         <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1134,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1159,7 +1169,7 @@
         <v>62</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1187,7 +1197,7 @@
         <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1215,7 +1225,7 @@
         <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1229,7 +1239,7 @@
         <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,7 +1253,7 @@
         <v>74</v>
       </c>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1309,7 +1319,7 @@
         <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1331,7 +1341,7 @@
         <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1342,7 +1352,7 @@
         <v>92</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1419,7 +1429,7 @@
         <v>106</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="11:13" x14ac:dyDescent="0.25">
@@ -1430,7 +1440,7 @@
         <v>108</v>
       </c>
       <c r="M35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="11:13" x14ac:dyDescent="0.25">
@@ -1441,7 +1451,7 @@
         <v>110</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="11:13" x14ac:dyDescent="0.25">
@@ -1485,7 +1495,7 @@
         <v>118</v>
       </c>
       <c r="M40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="11:13" x14ac:dyDescent="0.25">
@@ -1496,7 +1506,7 @@
         <v>120</v>
       </c>
       <c r="M41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="11:13" x14ac:dyDescent="0.25">
@@ -1507,7 +1517,7 @@
         <v>122</v>
       </c>
       <c r="M42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="11:13" x14ac:dyDescent="0.25">
@@ -1529,7 +1539,7 @@
         <v>126</v>
       </c>
       <c r="M44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="11:13" x14ac:dyDescent="0.25">
@@ -1573,7 +1583,7 @@
         <v>134</v>
       </c>
       <c r="M48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="11:13" x14ac:dyDescent="0.25">
@@ -1595,15 +1605,15 @@
         <v>138</v>
       </c>
       <c r="M50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1615,8 +1625,8 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL3" sqref="AL3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1838,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>39</v>
@@ -5578,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5733,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5753,10 +5763,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AY2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:AY26">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5768,9 +5778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860BC92D-B549-4AD4-AEA4-FAF7CF83DE3E}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5982,7 +5992,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>39</v>
@@ -9600,154 +9610,154 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25">
         <v>1</v>
       </c>
       <c r="AU25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
@@ -9755,162 +9765,165 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:AY2">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:AY26">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9927,15 +9940,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0859-BFC7-40E6-97BE-4124316516E0}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10583,67 +10596,67 @@
         <v>140</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -10714,37 +10727,37 @@
         <v>140</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -11335,19 +11348,19 @@
         <v>140</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH16" s="11" t="s">
         <v>141</v>
@@ -11956,7 +11969,7 @@
         <v>140</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.25">
@@ -12214,19 +12227,19 @@
         <v>140</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>141</v>
@@ -12865,7 +12878,7 @@
         <v>140</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.25">
@@ -15107,8 +15120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC2A82-7998-436D-923D-E027ED704B93}">
   <dimension ref="A2:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15423,7 +15436,7 @@
       </c>
       <c r="C25">
         <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A25,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -15436,7 +15449,7 @@
       </c>
       <c r="C26">
         <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A26,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15461,8 +15474,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16962,8 +16975,8 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
-        <v>0</v>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <v>1</v>
       </c>
       <c r="G13">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
@@ -18322,123 +18335,123 @@
       </c>
       <c r="B24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -18447,123 +18460,123 @@
       </c>
       <c r="B25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18584,7 +18597,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20850,15 +20863,15 @@
       </c>
       <c r="B24" s="14">
         <f>'RQSD-BRQSD'!B24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="14">
         <f>'RQSD-BRQSD'!C24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="14">
         <f>'RQSD-BRQSD'!D24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -20948,15 +20961,15 @@
       </c>
       <c r="B25" s="14">
         <f>'RQSD-BRQSD'!B25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="14">
         <f>'RQSD-BRQSD'!C25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="14">
         <f>'RQSD-BRQSD'!D25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C3439B-2311-48F7-B4A5-3A5461B32EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66909393-5B77-489C-998D-687A6AA4CC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1920" windowWidth="19965" windowHeight="7170" firstSheet="1" activeTab="2" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="2295" yWindow="2265" windowWidth="19965" windowHeight="7170" firstSheet="2" activeTab="6" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -5778,7 +5778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860BC92D-B549-4AD4-AEA4-FAF7CF83DE3E}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AT26" sqref="AT26"/>
     </sheetView>
@@ -9940,8 +9940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0859-BFC7-40E6-97BE-4124316516E0}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AH53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10498,16 +10498,16 @@
         <v>140</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>141</v>
@@ -10575,25 +10575,25 @@
         <v>140</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>141</v>
@@ -10727,37 +10727,37 @@
         <v>140</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -11309,58 +11309,58 @@
         <v>140</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH16" s="11" t="s">
         <v>141</v>
@@ -11912,61 +11912,61 @@
         <v>140</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH22" s="11" t="s">
         <v>141</v>
@@ -12215,16 +12215,16 @@
         <v>140</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S25" s="11" t="s">
         <v>141</v>
@@ -12286,31 +12286,31 @@
         <v>140</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>141</v>
@@ -12878,7 +12878,7 @@
         <v>140</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.25">
@@ -13225,31 +13225,31 @@
         <v>140</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W35" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X35" s="11" t="s">
         <v>141</v>
@@ -13700,31 +13700,31 @@
         <v>140</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>141</v>
@@ -14710,31 +14710,31 @@
         <v>140</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>141</v>
@@ -18596,8 +18596,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20874,85 +20874,85 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -20972,85 +20972,85 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66909393-5B77-489C-998D-687A6AA4CC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D3D7DA-B1A9-4D4A-9BFF-262B2EA720A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2265" windowWidth="19965" windowHeight="7170" firstSheet="2" activeTab="6" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="2295" yWindow="2265" windowWidth="19965" windowHeight="7170" firstSheet="4" activeTab="6" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -15121,7 +15121,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15435,8 +15435,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f>INDEX('CES custom'!$B$3:$AY$26,MATCH($A25,'CES custom'!$A$3:$A$26,0),MATCH(About!$B$1,'CES custom'!$B$2:$AY$2,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -15475,7 +15474,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18335,123 +18334,123 @@
       </c>
       <c r="B24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -18596,8 +18595,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20863,96 +20862,96 @@
       </c>
       <c r="B24" s="14">
         <f>'RQSD-BRQSD'!B24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="14">
         <f>'RQSD-BRQSD'!C24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="14">
         <f>'RQSD-BRQSD'!D24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D3D7DA-B1A9-4D4A-9BFF-262B2EA720A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF6A57E-EA2D-4CDC-9732-A926A23F5515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2265" windowWidth="19965" windowHeight="7170" firstSheet="4" activeTab="6" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="5" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45533</v>
+        <v>45721</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -1624,9 +1624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE78E49-9E37-4D14-A191-DD6C416836D5}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB12" sqref="AB12"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5779,7 +5779,7 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -15473,8 +15473,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16974,8 +16974,8 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
-        <v>1</v>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <v>0</v>
       </c>
       <c r="G13">
         <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
@@ -18595,8 +18595,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:AE24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\SC\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF6A57E-EA2D-4CDC-9732-A926A23F5515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34904CD1-76A7-41FA-A51F-D3C549539B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="5" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
+    <workbookView xWindow="2310" yWindow="1035" windowWidth="11385" windowHeight="15660" firstSheet="4" activeTab="5" xr2:uid="{926FECFB-B71C-4A2C-ACA6-D14493392182}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RPS custom new" sheetId="7" r:id="rId2"/>
     <sheet name="CES custom" sheetId="8" r:id="rId3"/>
-    <sheet name="RPS v CES" sheetId="4" r:id="rId4"/>
-    <sheet name="default values" sheetId="5" r:id="rId5"/>
-    <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId6"/>
-    <sheet name="RQSD-RQSD" sheetId="3" r:id="rId7"/>
+    <sheet name="IL Custom" sheetId="9" r:id="rId4"/>
+    <sheet name="VA custom" sheetId="10" r:id="rId5"/>
+    <sheet name="RPS v CES" sheetId="4" r:id="rId6"/>
+    <sheet name="default values" sheetId="5" r:id="rId7"/>
+    <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId8"/>
+    <sheet name="RQSD-RQSD" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="145">
   <si>
     <t>Source:</t>
   </si>
@@ -537,7 +539,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -600,6 +608,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1002,7 +1011,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1013,7 +1022,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="12">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>39</v>
@@ -1610,10 +1619,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1624,9 +1633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE78E49-9E37-4D14-A191-DD6C416836D5}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT27" sqref="AT27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG3" sqref="AG3:AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5778,9 +5787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860BC92D-B549-4AD4-AEA4-FAF7CF83DE3E}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT26" sqref="AT26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,7 +8143,6 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH15">
@@ -8928,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>1</v>
@@ -9083,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>1</v>
@@ -9238,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>1</v>
@@ -9393,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="AG23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>1</v>
@@ -9548,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24">
         <v>1</v>
@@ -9937,11 +9945,4798 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD32CF9-981C-47B1-B896-3B13CED44A3B}">
+  <dimension ref="A1:AE25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3D83DF-5C0A-4931-A0C7-8025ECBEB3FE}">
+  <dimension ref="A1:AE25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0859-BFC7-40E6-97BE-4124316516E0}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AH53"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11272,98 +16067,98 @@
       <c r="C16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH16" s="11" t="s">
-        <v>141</v>
+      <c r="D16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH16" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
@@ -14605,98 +19400,98 @@
       <c r="C49" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="W49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG49" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH49" s="11" t="s">
-        <v>141</v>
+      <c r="D49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="U49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="V49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="W49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="X49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH49" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:34" x14ac:dyDescent="0.25">
@@ -15116,12 +19911,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC2A82-7998-436D-923D-E027ED704B93}">
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15466,15 +20261,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15583,123 +20378,153 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,'default values'!$C3)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE2,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE2,
+'default values'!$C3)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15708,123 +20533,153 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,'default values'!$C4)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE3,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE3,
+'default values'!$C4)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15833,123 +20688,153 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,'default values'!$C5)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE4,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE4,
+'default values'!$C5)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15958,123 +20843,153 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="C5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="D5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="E5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="H5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="I5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="J5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="M5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="N5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="O5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="P5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="Q5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="R5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="S5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="T5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="U5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="V5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="W5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="X5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="Z5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="AA5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="AB5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="AD5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
       <c r="AE5">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,'default values'!$C6)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE5,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE5,
+'default values'!$C6)))</f>
         <v>1</v>
       </c>
     </row>
@@ -16083,123 +20998,153 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="D6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="H6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="I6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="J6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="K6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="M6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="N6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="R6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="S6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="T6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="U6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="W6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="X6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="Y6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="Z6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="AA6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="AB6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="AC6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="AD6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
       <c r="AE6">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,'default values'!$C7)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE6,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE6,
+'default values'!$C7)))</f>
         <v>1</v>
       </c>
     </row>
@@ -16208,123 +21153,153 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="C7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="D7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="E7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="G7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="J7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="K7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="U7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="V7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="W7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="X7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="Y7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="Z7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="AA7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="AB7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="AC7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="AD7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
       <c r="AE7">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,'default values'!$C8)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE7,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE7,
+'default values'!$C8)))</f>
         <v>1</v>
       </c>
     </row>
@@ -16333,123 +21308,153 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="C8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="D8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="E8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="I8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="J8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="K8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="L8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="M8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="N8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="O8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="P8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="Q8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="R8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="S8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="T8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="U8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="V8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="W8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="X8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="Y8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="Z8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="AA8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="AB8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="AC8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="AD8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
       <c r="AE8">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,'default values'!$C9)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE8,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE8,
+'default values'!$C9)))</f>
         <v>1</v>
       </c>
     </row>
@@ -16458,123 +21463,153 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="C9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="D9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="E9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="F9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="H9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="J9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="K9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="L9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="M9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="O9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="P9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="Q9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="R9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="S9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="T9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="U9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="V9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="W9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="X9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="Y9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="Z9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="AA9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="AB9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="AC9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="AD9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
       <c r="AE9">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,'default values'!$C10)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE9,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE9,
+'default values'!$C10)))</f>
         <v>1</v>
       </c>
     </row>
@@ -16583,123 +21618,153 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="C10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="D10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="E10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="G10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="I10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="J10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="K10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="L10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="M10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="O10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="P10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="Q10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="R10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="S10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="T10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="U10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="V10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="W10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="X10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="Y10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="Z10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="AA10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="AB10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="AC10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="AD10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
       <c r="AE10">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,'default values'!$C11)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE10,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE10,
+'default values'!$C11)))</f>
         <v>1</v>
       </c>
     </row>
@@ -16708,123 +21773,153 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="C11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="D11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="E11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="G11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="J11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="K11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="L11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="M11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="N11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="O11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="P11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="R11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="S11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="T11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="U11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="V11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="W11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="X11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="Y11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="Z11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="AA11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="AB11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="AC11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="AD11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
       <c r="AE11">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,'default values'!$C12)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE11,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE11,
+'default values'!$C12)))</f>
         <v>1</v>
       </c>
     </row>
@@ -16833,123 +21928,153 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,'default values'!$C13)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE12,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE12,
+'default values'!$C13)))</f>
         <v>0</v>
       </c>
     </row>
@@ -16958,123 +22083,153 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,'default values'!$C14)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE13,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE13,
+'default values'!$C14)))</f>
         <v>0</v>
       </c>
     </row>
@@ -17083,123 +22238,153 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,'default values'!$C15)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE14,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE14,
+'default values'!$C15)))</f>
         <v>0</v>
       </c>
     </row>
@@ -17208,123 +22393,153 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="C15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="D15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="E15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="F15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="I15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="J15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="L15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="M15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="O15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="P15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="R15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="S15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="T15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="U15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="V15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="W15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="X15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="Y15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="Z15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="AA15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="AB15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="AC15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="AD15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
       <c r="AE15">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,'default values'!$C16)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE15,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE15,
+'default values'!$C16)))</f>
         <v>1</v>
       </c>
     </row>
@@ -17333,123 +22548,153 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="R16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="S16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="U16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="AA16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
       <c r="AE16">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,'default values'!$C17)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE16,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE16,
+'default values'!$C17)))</f>
         <v>0</v>
       </c>
     </row>
@@ -17458,123 +22703,153 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="S17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="AD17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
       <c r="AE17">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,'default values'!$C18)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE17,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE17,
+'default values'!$C18)))</f>
         <v>0</v>
       </c>
     </row>
@@ -17583,123 +22858,153 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="C18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="D18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="E18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="F18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="G18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="I18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="J18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="K18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="L18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="M18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="N18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="O18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="P18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="R18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="T18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="U18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="V18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="W18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="X18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="Y18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="Z18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="AA18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="AB18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="AC18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="AD18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
       <c r="AE18">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,'default values'!$C19)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE18,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE18,
+'default values'!$C19)))</f>
         <v>1</v>
       </c>
     </row>
@@ -17708,123 +23013,153 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="C19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="D19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="E19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="I19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="J19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="K19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="L19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="M19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="P19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="Q19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="R19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="S19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="T19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="U19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="V19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="W19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="X19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="Y19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="Z19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="AA19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="AB19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="AC19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="AD19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
       <c r="AE19">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,'default values'!$C20)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE19,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE19,
+'default values'!$C20)))</f>
         <v>1</v>
       </c>
     </row>
@@ -17833,123 +23168,153 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="C20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="D20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="E20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="F20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="G20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="I20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="J20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="K20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="M20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="P20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="Q20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="R20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="S20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="T20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="U20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="V20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="W20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="X20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="Y20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="Z20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="AA20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="AB20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="AC20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="AD20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
       <c r="AE20">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,'default values'!$C21)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE20,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE20,
+'default values'!$C21)))</f>
         <v>1</v>
       </c>
     </row>
@@ -17958,123 +23323,153 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="C21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="D21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="E21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="F21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="G21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="I21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="J21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="K21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="L21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="M21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="P21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="Q21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="R21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="S21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="T21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="U21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="V21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="W21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="X21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="Y21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="Z21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="AA21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="AB21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="AC21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="AD21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
       <c r="AE21">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,'default values'!$C22)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE21,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE21,
+'default values'!$C22)))</f>
         <v>1</v>
       </c>
     </row>
@@ -18083,123 +23478,153 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="C22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="D22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="E22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="G22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="H22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="I22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="J22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="K22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="L22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="M22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="P22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="Q22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="R22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="S22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="T22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="U22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="V22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="W22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="X22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="Y22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="Z22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="AA22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="AB22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="AC22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="AD22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
       <c r="AE22">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,'default values'!$C23)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE22,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE22,
+'default values'!$C23)))</f>
         <v>1</v>
       </c>
     </row>
@@ -18208,123 +23633,153 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="C23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="D23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="G23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="H23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="I23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="J23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="K23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="L23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="M23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="P23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="Q23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="R23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="S23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="T23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="U23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="V23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="W23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="X23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="Y23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="Z23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="AA23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="AB23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="AC23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="AD23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
       <c r="AE23">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,'default values'!$C24)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE23,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE23,
+'default values'!$C24)))</f>
         <v>1</v>
       </c>
     </row>
@@ -18333,123 +23788,153 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="C24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="D24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="E24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="F24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="G24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="I24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="J24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="K24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="L24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="M24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="P24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="Q24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="R24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="S24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="T24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="U24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="V24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="W24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="X24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="Y24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="Z24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="AA24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="AB24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="AC24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="AD24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
       <c r="AE24">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,'default values'!$C25)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE24,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE24,
+'default values'!$C25)))</f>
         <v>1</v>
       </c>
     </row>
@@ -18458,123 +23943,153 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!B25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(B$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!B25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!C25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(C$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!C25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!D25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(D$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!D25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!E25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(E$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!E25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!F25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(F$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!F25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!G25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(G$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!G25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!H25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(H$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!H25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!I25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(I$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!I25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!J25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(J$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!J25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!K25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(K$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!K25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!L25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(L$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!L25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!M25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(M$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!M25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!N25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(N$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!N25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!O25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(O$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!O25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!P25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(P$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!P25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Q25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Q$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Q25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!R25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(R$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!R25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!S25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(S$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!S25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="T25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!T25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(T$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!T25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="U25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!U25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(U$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!U25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!V25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(V$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!V25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="W25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!W25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(W$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!W25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="X25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!X25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(X$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!X25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Y25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Y$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Y25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!Z25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(Z$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!Z25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AA25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AA$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AA25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="AB25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AB25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AB$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AB25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AC25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AC$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AC25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="AD25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AD25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AD$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AD25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
       <c r="AE25">
-        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,'default values'!$C26)</f>
+        <f>IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="RPS",'default values'!$B26,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="IL",'IL Custom'!AE25,IF(INDEX('RPS v CES'!$D$4:$AH$53,MATCH(About!$B$2,'RPS v CES'!$C$4:$C$53,0),MATCH(AE$1,'RPS v CES'!$D$3:$AH$3,0))="VA",'VA custom'!AE25,
+'default values'!$C26)))</f>
         <v>0</v>
       </c>
     </row>
@@ -18588,7 +24103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
